--- a/results_of_test/test_3/Fidelity_result_intra_states_q_4_engl_True.xlsx
+++ b/results_of_test/test_3/Fidelity_result_intra_states_q_4_engl_True.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>States</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>ket_4_qubits_2</t>
+  </si>
+  <si>
+    <t>ket_4_qubits_entanglement_par2</t>
+  </si>
+  <si>
+    <t>ket_4_qubits_3</t>
+  </si>
+  <si>
+    <t>ket_4_qubits_entanglement_impar3</t>
+  </si>
+  <si>
+    <t>ket_4_qubits_4</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +441,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.000000012425137</v>
+        <v>0.9999998960654242</v>
       </c>
       <c r="C2">
-        <v>1.000000021997764</v>
+        <v>0.9999999285662552</v>
       </c>
       <c r="D2">
-        <v>5.58627952524485E-08</v>
+        <v>3.608018116681486E-07</v>
       </c>
       <c r="E2">
-        <v>2.33638654235296E-08</v>
+        <v>2.196762814519897E-07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +458,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.000000008524615</v>
+        <v>0.9999998881169783</v>
       </c>
       <c r="C3">
-        <v>1.000000022439853</v>
+        <v>0.9999999191737708</v>
       </c>
       <c r="D3">
-        <v>5.40859785111196E-08</v>
+        <v>3.633544787071536E-07</v>
       </c>
       <c r="E3">
-        <v>2.642898483998044E-08</v>
+        <v>2.215695067837578E-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +475,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.000000010163195</v>
+        <v>0.99999976245559</v>
       </c>
       <c r="C4">
-        <v>1.000000021556758</v>
+        <v>0.9999997715878151</v>
       </c>
       <c r="D4">
-        <v>6.174895035594013E-08</v>
+        <v>4.640893736777865E-07</v>
       </c>
       <c r="E4">
-        <v>2.979922483657889E-08</v>
+        <v>3.654710111690524E-07</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +492,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9999999897125075</v>
+        <v>0.9999995777003929</v>
       </c>
       <c r="C5">
-        <v>1.00000001106722</v>
+        <v>0.9999995477139753</v>
       </c>
       <c r="D5">
-        <v>8.728435026880297E-08</v>
+        <v>5.490143502403263E-07</v>
       </c>
       <c r="E5">
-        <v>5.609456446325432E-08</v>
+        <v>5.472514559649301E-07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +509,84 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.9999999835015501</v>
+        <v>0.9999994624727938</v>
       </c>
       <c r="C6">
-        <v>1.000000002155527</v>
+        <v>0.9999994371295509</v>
       </c>
       <c r="D6">
-        <v>8.40588933947629E-08</v>
+        <v>6.440942439032393E-07</v>
       </c>
       <c r="E6">
-        <v>6.19389938866763E-08</v>
+        <v>5.376051132731105E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.9999994412389227</v>
+      </c>
+      <c r="C7">
+        <v>0.9999994227643966</v>
+      </c>
+      <c r="D7">
+        <v>6.469393227693272E-07</v>
+      </c>
+      <c r="E7">
+        <v>5.382674114584315E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.9999994094894872</v>
+      </c>
+      <c r="C8">
+        <v>0.9999993767221391</v>
+      </c>
+      <c r="D8">
+        <v>6.536323337455192E-07</v>
+      </c>
+      <c r="E8">
+        <v>5.282006670741286E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.9999991983162559</v>
+      </c>
+      <c r="C9">
+        <v>0.9999992608790088</v>
+      </c>
+      <c r="D9">
+        <v>8.676634342101196E-07</v>
+      </c>
+      <c r="E9">
+        <v>5.769643432526371E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.9999990847177954</v>
+      </c>
+      <c r="C10">
+        <v>0.9999992518471467</v>
+      </c>
+      <c r="D10">
+        <v>9.649849527031798E-07</v>
+      </c>
+      <c r="E10">
+        <v>5.856294562969219E-07</v>
       </c>
     </row>
   </sheetData>
